--- a/世界杯赛果整理.xlsx
+++ b/世界杯赛果整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
@@ -16,19 +16,18 @@
     <sheet name="各国攻防评估" sheetId="12" r:id="rId7"/>
     <sheet name="模拟比较结果" sheetId="15" r:id="rId8"/>
     <sheet name="结果数据透视" sheetId="16" r:id="rId9"/>
-    <sheet name="dfghs" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId11"/>
-    <pivotCache cacheId="10" r:id="rId12"/>
-    <pivotCache cacheId="22" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="203">
   <si>
     <t>1998年法国世界杯</t>
   </si>
@@ -610,155 +609,6 @@
   </si>
   <si>
     <t>埃及</t>
-  </si>
-  <si>
-    <t>埃及</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国-德国</t>
-  </si>
-  <si>
-    <t>秘鲁-丹麦</t>
-  </si>
-  <si>
-    <t>伊朗-西班牙</t>
-  </si>
-  <si>
-    <t>墨西哥-瑞典</t>
-  </si>
-  <si>
-    <t>伊朗-葡萄牙</t>
-  </si>
-  <si>
-    <t>丹麦-法国</t>
-  </si>
-  <si>
-    <t>尼日利亚-阿根廷</t>
-  </si>
-  <si>
-    <t>比利时-巴拿马</t>
-  </si>
-  <si>
-    <t>澳大利亚-秘鲁</t>
-  </si>
-  <si>
-    <t>摩洛哥-伊朗</t>
-  </si>
-  <si>
-    <t>埃及-乌拉圭</t>
-  </si>
-  <si>
-    <t>日本-波兰</t>
-  </si>
-  <si>
-    <t>塞尔维亚-巴西</t>
-  </si>
-  <si>
-    <t>日本-塞内加尔</t>
-  </si>
-  <si>
-    <t>尼日利亚-冰岛</t>
-  </si>
-  <si>
-    <t>巴拿马-突尼斯</t>
-  </si>
-  <si>
-    <t>葡萄牙-摩洛哥</t>
-  </si>
-  <si>
-    <t>乌拉圭-俄罗斯</t>
-  </si>
-  <si>
-    <t>俄罗斯-埃及</t>
-  </si>
-  <si>
-    <t>法国-澳大利亚</t>
-  </si>
-  <si>
-    <t>沙特-埃及</t>
-  </si>
-  <si>
-    <t>乌拉圭-沙特</t>
-  </si>
-  <si>
-    <t>韩国-墨西哥</t>
-  </si>
-  <si>
-    <t>冰岛-克罗地亚</t>
-  </si>
-  <si>
-    <t>俄罗斯-沙特</t>
-  </si>
-  <si>
-    <t>德国-瑞典</t>
-  </si>
-  <si>
-    <t>比利时-突尼斯</t>
-  </si>
-  <si>
-    <t>葡萄牙-西班牙</t>
-  </si>
-  <si>
-    <t>瑞典-韩国</t>
-  </si>
-  <si>
-    <t>突尼斯-英格兰</t>
-  </si>
-  <si>
-    <t>波兰-哥伦比亚</t>
-  </si>
-  <si>
-    <t>西班牙-摩洛哥</t>
-  </si>
-  <si>
-    <t>波兰-塞内加尔</t>
-  </si>
-  <si>
-    <t>阿根廷-冰岛</t>
-  </si>
-  <si>
-    <t>丹麦-澳大利亚</t>
-  </si>
-  <si>
-    <t>德国-墨西哥</t>
-  </si>
-  <si>
-    <t>塞内加尔-哥伦比亚</t>
-  </si>
-  <si>
-    <t>哥斯达黎加-塞尔维亚</t>
-  </si>
-  <si>
-    <t>巴西-哥斯达黎加</t>
-  </si>
-  <si>
-    <t>塞尔维亚-瑞士</t>
-  </si>
-  <si>
-    <t>法国-秘鲁</t>
-  </si>
-  <si>
-    <t>巴西-瑞士</t>
-  </si>
-  <si>
-    <t>阿根廷-克罗地亚</t>
-  </si>
-  <si>
-    <t>英格兰-巴拿马</t>
-  </si>
-  <si>
-    <t>哥伦比亚-日本</t>
-  </si>
-  <si>
-    <t>克罗地亚-尼日利亚</t>
-  </si>
-  <si>
-    <t>瑞士-哥斯达黎加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,14 +645,6 @@
   </si>
   <si>
     <t>胜方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英格兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英格兰-比利时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,33 +931,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1171,6 +986,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,7 +1225,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43245.031167245368" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="42">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I43" sheet="模拟比较结果"/>
+    <worksheetSource ref="A1:I43" sheet="模拟比较结果" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="A" numFmtId="0">
@@ -5287,7 +5129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C64" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5610,7 +5452,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C69" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5915,7 +5757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6279,48 +6121,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="14.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="14.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -7601,11 +7443,11 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="26" t="s">
+      <c r="K53" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L53" s="27"/>
-      <c r="M53" s="28"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="19"/>
     </row>
     <row r="54" spans="1:13" ht="14.25">
       <c r="A54" s="2" t="s">
@@ -7626,9 +7468,9 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="31"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:13" ht="14.25">
       <c r="A55" s="2" t="s">
@@ -7649,9 +7491,9 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="31"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:13" ht="14.25">
       <c r="A56" s="2" t="s">
@@ -7672,9 +7514,9 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="31"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:13" ht="14.25">
       <c r="A57" s="2" t="s">
@@ -7695,9 +7537,9 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:13" ht="14.25">
       <c r="A58" s="2" t="s">
@@ -7718,9 +7560,9 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="31"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
     </row>
     <row r="59" spans="1:13" ht="14.25">
       <c r="A59" s="2" t="s">
@@ -7741,9 +7583,9 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="31"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:13" ht="14.25">
       <c r="A60" s="2" t="s">
@@ -7764,9 +7606,9 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="31"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
     </row>
     <row r="61" spans="1:13" ht="14.25">
       <c r="A61" s="2" t="s">
@@ -7787,9 +7629,9 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="31"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:13" ht="14.25">
       <c r="A62" s="2" t="s">
@@ -7810,9 +7652,9 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="31"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" spans="1:13" ht="14.25">
       <c r="A63" s="2" t="s">
@@ -7833,9 +7675,9 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="31"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="22"/>
     </row>
     <row r="64" spans="1:13" ht="14.25">
       <c r="A64" s="2" t="s">
@@ -7856,9 +7698,9 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="31"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="22"/>
     </row>
     <row r="65" spans="1:13" ht="14.25">
       <c r="A65" s="2" t="s">
@@ -7879,9 +7721,9 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="31"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="1:13" ht="14.25">
       <c r="A66" s="2" t="s">
@@ -7902,9 +7744,9 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="31"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="22"/>
     </row>
     <row r="67" spans="1:13" ht="14.25">
       <c r="A67" s="2" t="s">
@@ -7927,9 +7769,9 @@
       <c r="J67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="34"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="25"/>
     </row>
     <row r="68" spans="1:13" ht="14.25">
       <c r="A68" s="1"/>
@@ -7947,48 +7789,48 @@
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" ht="14.25">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" ht="14.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13" ht="14.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -9250,11 +9092,11 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="26" t="s">
+      <c r="K120" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L120" s="27"/>
-      <c r="M120" s="28"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="19"/>
     </row>
     <row r="121" spans="1:13" ht="14.25">
       <c r="A121" s="2" t="s">
@@ -9275,9 +9117,9 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="30"/>
-      <c r="M121" s="31"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="22"/>
     </row>
     <row r="122" spans="1:13" ht="14.25">
       <c r="A122" s="2" t="s">
@@ -9298,9 +9140,9 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="30"/>
-      <c r="M122" s="31"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="22"/>
     </row>
     <row r="123" spans="1:13" ht="14.25">
       <c r="A123" s="2" t="s">
@@ -9321,9 +9163,9 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="30"/>
-      <c r="M123" s="31"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="22"/>
     </row>
     <row r="124" spans="1:13" ht="14.25">
       <c r="A124" s="2" t="s">
@@ -9344,9 +9186,9 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="31"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="22"/>
     </row>
     <row r="125" spans="1:13" ht="14.25">
       <c r="A125" s="2" t="s">
@@ -9367,9 +9209,9 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="30"/>
-      <c r="M125" s="31"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="22"/>
     </row>
     <row r="126" spans="1:13" ht="14.25">
       <c r="A126" s="2" t="s">
@@ -9390,9 +9232,9 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="30"/>
-      <c r="M126" s="31"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="22"/>
     </row>
     <row r="127" spans="1:13" ht="14.25">
       <c r="A127" s="2" t="s">
@@ -9413,9 +9255,9 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="30"/>
-      <c r="M127" s="31"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="22"/>
     </row>
     <row r="128" spans="1:13" ht="14.25">
       <c r="A128" s="2" t="s">
@@ -9436,9 +9278,9 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="29"/>
-      <c r="L128" s="30"/>
-      <c r="M128" s="31"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="22"/>
     </row>
     <row r="129" spans="1:13" ht="14.25">
       <c r="A129" s="2" t="s">
@@ -9459,9 +9301,9 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="30"/>
-      <c r="M129" s="31"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="21"/>
+      <c r="M129" s="22"/>
     </row>
     <row r="130" spans="1:13" ht="14.25">
       <c r="A130" s="2" t="s">
@@ -9482,9 +9324,9 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="30"/>
-      <c r="M130" s="31"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="22"/>
     </row>
     <row r="131" spans="1:13" ht="14.25">
       <c r="A131" s="2" t="s">
@@ -9505,9 +9347,9 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="30"/>
-      <c r="M131" s="31"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="22"/>
     </row>
     <row r="132" spans="1:13" ht="14.25">
       <c r="A132" s="2" t="s">
@@ -9528,9 +9370,9 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="30"/>
-      <c r="M132" s="31"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="22"/>
     </row>
     <row r="133" spans="1:13" ht="14.25">
       <c r="A133" s="2" t="s">
@@ -9551,9 +9393,9 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="30"/>
-      <c r="M133" s="31"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="22"/>
     </row>
     <row r="134" spans="1:13" ht="14.25">
       <c r="A134" s="2" t="s">
@@ -9574,9 +9416,9 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="30"/>
-      <c r="M134" s="31"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="22"/>
     </row>
     <row r="135" spans="1:13" ht="14.25">
       <c r="A135" s="2" t="s">
@@ -9599,9 +9441,9 @@
       <c r="J135" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K135" s="32"/>
-      <c r="L135" s="33"/>
-      <c r="M135" s="34"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="25"/>
     </row>
     <row r="136" spans="1:13" ht="14.25">
       <c r="A136" s="1"/>
@@ -9619,48 +9461,48 @@
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="1:13" ht="14.25">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B137" s="38"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="40"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="31"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="1:13" ht="14.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="42"/>
-      <c r="F138" s="42"/>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="44"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="35"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="1:13" ht="14.25">
-      <c r="A139" s="20"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="23"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="42"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -10962,11 +10804,11 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="26" t="s">
+      <c r="K190" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="L190" s="27"/>
-      <c r="M190" s="28"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="19"/>
     </row>
     <row r="191" spans="1:13" ht="14.25">
       <c r="A191" s="2" t="s">
@@ -10987,9 +10829,9 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="29"/>
-      <c r="L191" s="30"/>
-      <c r="M191" s="31"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="21"/>
+      <c r="M191" s="22"/>
     </row>
     <row r="192" spans="1:13" ht="14.25">
       <c r="A192" s="2" t="s">
@@ -11010,9 +10852,9 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="29"/>
-      <c r="L192" s="30"/>
-      <c r="M192" s="31"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="21"/>
+      <c r="M192" s="22"/>
     </row>
     <row r="193" spans="1:13" ht="14.25">
       <c r="A193" s="2" t="s">
@@ -11033,9 +10875,9 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="29"/>
-      <c r="L193" s="30"/>
-      <c r="M193" s="31"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="22"/>
     </row>
     <row r="194" spans="1:13" ht="14.25">
       <c r="A194" s="2" t="s">
@@ -11056,9 +10898,9 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="29"/>
-      <c r="L194" s="30"/>
-      <c r="M194" s="31"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="21"/>
+      <c r="M194" s="22"/>
     </row>
     <row r="195" spans="1:13" ht="14.25">
       <c r="A195" s="2" t="s">
@@ -11079,9 +10921,9 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="29"/>
-      <c r="L195" s="30"/>
-      <c r="M195" s="31"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="22"/>
     </row>
     <row r="196" spans="1:13" ht="14.25">
       <c r="A196" s="2" t="s">
@@ -11102,9 +10944,9 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="29"/>
-      <c r="L196" s="30"/>
-      <c r="M196" s="31"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="22"/>
     </row>
     <row r="197" spans="1:13" ht="14.25">
       <c r="A197" s="2" t="s">
@@ -11125,9 +10967,9 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="29"/>
-      <c r="L197" s="30"/>
-      <c r="M197" s="31"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="21"/>
+      <c r="M197" s="22"/>
     </row>
     <row r="198" spans="1:13" ht="14.25">
       <c r="A198" s="2" t="s">
@@ -11148,9 +10990,9 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="29"/>
-      <c r="L198" s="30"/>
-      <c r="M198" s="31"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="21"/>
+      <c r="M198" s="22"/>
     </row>
     <row r="199" spans="1:13" ht="14.25">
       <c r="A199" s="2" t="s">
@@ -11171,9 +11013,9 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="29"/>
-      <c r="L199" s="30"/>
-      <c r="M199" s="31"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="22"/>
     </row>
     <row r="200" spans="1:13" ht="14.25">
       <c r="A200" s="2" t="s">
@@ -11194,9 +11036,9 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="29"/>
-      <c r="L200" s="30"/>
-      <c r="M200" s="31"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="21"/>
+      <c r="M200" s="22"/>
     </row>
     <row r="201" spans="1:13" ht="14.25">
       <c r="A201" s="2" t="s">
@@ -11217,9 +11059,9 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="29"/>
-      <c r="L201" s="30"/>
-      <c r="M201" s="31"/>
+      <c r="K201" s="20"/>
+      <c r="L201" s="21"/>
+      <c r="M201" s="22"/>
     </row>
     <row r="202" spans="1:13" ht="14.25">
       <c r="A202" s="2" t="s">
@@ -11240,9 +11082,9 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="29"/>
-      <c r="L202" s="30"/>
-      <c r="M202" s="31"/>
+      <c r="K202" s="20"/>
+      <c r="L202" s="21"/>
+      <c r="M202" s="22"/>
     </row>
     <row r="203" spans="1:13" ht="14.25">
       <c r="A203" s="2" t="s">
@@ -11267,9 +11109,9 @@
       <c r="J203" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K203" s="32"/>
-      <c r="L203" s="33"/>
-      <c r="M203" s="34"/>
+      <c r="K203" s="23"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="25"/>
     </row>
     <row r="204" spans="1:13" ht="14.25">
       <c r="A204" s="1"/>
@@ -11287,48 +11129,48 @@
       <c r="M204" s="1"/>
     </row>
     <row r="205" spans="1:13" ht="14.25">
-      <c r="A205" s="35" t="s">
+      <c r="A205" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B205" s="35"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="35"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="35"/>
-      <c r="G205" s="35"/>
-      <c r="H205" s="35"/>
-      <c r="I205" s="35"/>
-      <c r="J205" s="35"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="26"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="26"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
     </row>
     <row r="206" spans="1:13" ht="14.25">
-      <c r="A206" s="35"/>
-      <c r="B206" s="35"/>
-      <c r="C206" s="36"/>
-      <c r="D206" s="35"/>
-      <c r="E206" s="35"/>
-      <c r="F206" s="35"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="35"/>
-      <c r="I206" s="35"/>
-      <c r="J206" s="35"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="26"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
     </row>
     <row r="207" spans="1:13" ht="14.25">
-      <c r="A207" s="17"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
-      <c r="J207" s="17"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="36"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
@@ -12607,11 +12449,11 @@
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="26" t="s">
+      <c r="K257" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="L257" s="27"/>
-      <c r="M257" s="28"/>
+      <c r="L257" s="18"/>
+      <c r="M257" s="19"/>
     </row>
     <row r="258" spans="1:13" ht="14.25">
       <c r="A258" s="2" t="s">
@@ -12632,9 +12474,9 @@
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="29"/>
-      <c r="L258" s="30"/>
-      <c r="M258" s="31"/>
+      <c r="K258" s="20"/>
+      <c r="L258" s="21"/>
+      <c r="M258" s="22"/>
     </row>
     <row r="259" spans="1:13" ht="14.25">
       <c r="A259" s="2" t="s">
@@ -12655,9 +12497,9 @@
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="29"/>
-      <c r="L259" s="30"/>
-      <c r="M259" s="31"/>
+      <c r="K259" s="20"/>
+      <c r="L259" s="21"/>
+      <c r="M259" s="22"/>
     </row>
     <row r="260" spans="1:13" ht="14.25">
       <c r="A260" s="2" t="s">
@@ -12678,9 +12520,9 @@
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="29"/>
-      <c r="L260" s="30"/>
-      <c r="M260" s="31"/>
+      <c r="K260" s="20"/>
+      <c r="L260" s="21"/>
+      <c r="M260" s="22"/>
     </row>
     <row r="261" spans="1:13" ht="14.25">
       <c r="A261" s="2" t="s">
@@ -12701,9 +12543,9 @@
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="29"/>
-      <c r="L261" s="30"/>
-      <c r="M261" s="31"/>
+      <c r="K261" s="20"/>
+      <c r="L261" s="21"/>
+      <c r="M261" s="22"/>
     </row>
     <row r="262" spans="1:13" ht="14.25">
       <c r="A262" s="2" t="s">
@@ -12724,9 +12566,9 @@
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="29"/>
-      <c r="L262" s="30"/>
-      <c r="M262" s="31"/>
+      <c r="K262" s="20"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="22"/>
     </row>
     <row r="263" spans="1:13" ht="14.25">
       <c r="A263" s="2" t="s">
@@ -12747,9 +12589,9 @@
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="29"/>
-      <c r="L263" s="30"/>
-      <c r="M263" s="31"/>
+      <c r="K263" s="20"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="22"/>
     </row>
     <row r="264" spans="1:13" ht="14.25">
       <c r="A264" s="2" t="s">
@@ -12770,9 +12612,9 @@
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="4"/>
-      <c r="K264" s="29"/>
-      <c r="L264" s="30"/>
-      <c r="M264" s="31"/>
+      <c r="K264" s="20"/>
+      <c r="L264" s="21"/>
+      <c r="M264" s="22"/>
     </row>
     <row r="265" spans="1:13" ht="14.25">
       <c r="A265" s="2" t="s">
@@ -12793,9 +12635,9 @@
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
       <c r="J265" s="4"/>
-      <c r="K265" s="29"/>
-      <c r="L265" s="30"/>
-      <c r="M265" s="31"/>
+      <c r="K265" s="20"/>
+      <c r="L265" s="21"/>
+      <c r="M265" s="22"/>
     </row>
     <row r="266" spans="1:13" ht="14.25">
       <c r="A266" s="2" t="s">
@@ -12816,9 +12658,9 @@
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
       <c r="J266" s="4"/>
-      <c r="K266" s="29"/>
-      <c r="L266" s="30"/>
-      <c r="M266" s="31"/>
+      <c r="K266" s="20"/>
+      <c r="L266" s="21"/>
+      <c r="M266" s="22"/>
     </row>
     <row r="267" spans="1:13" ht="14.25">
       <c r="A267" s="2" t="s">
@@ -12839,9 +12681,9 @@
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="29"/>
-      <c r="L267" s="30"/>
-      <c r="M267" s="31"/>
+      <c r="K267" s="20"/>
+      <c r="L267" s="21"/>
+      <c r="M267" s="22"/>
     </row>
     <row r="268" spans="1:13" ht="14.25">
       <c r="A268" s="2" t="s">
@@ -12862,9 +12704,9 @@
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="29"/>
-      <c r="L268" s="30"/>
-      <c r="M268" s="31"/>
+      <c r="K268" s="20"/>
+      <c r="L268" s="21"/>
+      <c r="M268" s="22"/>
     </row>
     <row r="269" spans="1:13" ht="14.25">
       <c r="A269" s="2" t="s">
@@ -12885,9 +12727,9 @@
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="29"/>
-      <c r="L269" s="30"/>
-      <c r="M269" s="31"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="21"/>
+      <c r="M269" s="22"/>
     </row>
     <row r="270" spans="1:13" ht="14.25">
       <c r="A270" s="2" t="s">
@@ -12908,9 +12750,9 @@
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="29"/>
-      <c r="L270" s="30"/>
-      <c r="M270" s="31"/>
+      <c r="K270" s="20"/>
+      <c r="L270" s="21"/>
+      <c r="M270" s="22"/>
     </row>
     <row r="271" spans="1:13" ht="14.25">
       <c r="A271" s="2" t="s">
@@ -12933,9 +12775,9 @@
       <c r="J271" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K271" s="32"/>
-      <c r="L271" s="33"/>
-      <c r="M271" s="34"/>
+      <c r="K271" s="23"/>
+      <c r="L271" s="24"/>
+      <c r="M271" s="25"/>
     </row>
     <row r="272" spans="1:13" ht="14.25">
       <c r="A272" s="1"/>
@@ -12953,48 +12795,48 @@
       <c r="M272" s="1"/>
     </row>
     <row r="273" spans="1:13" ht="14.25">
-      <c r="A273" s="35" t="s">
+      <c r="A273" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B273" s="35"/>
-      <c r="C273" s="36"/>
-      <c r="D273" s="35"/>
-      <c r="E273" s="35"/>
-      <c r="F273" s="35"/>
-      <c r="G273" s="35"/>
-      <c r="H273" s="35"/>
-      <c r="I273" s="35"/>
-      <c r="J273" s="35"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="27"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="26"/>
+      <c r="F273" s="26"/>
+      <c r="G273" s="26"/>
+      <c r="H273" s="26"/>
+      <c r="I273" s="26"/>
+      <c r="J273" s="26"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
     </row>
     <row r="274" spans="1:13" ht="14.25">
-      <c r="A274" s="35"/>
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="35"/>
-      <c r="E274" s="35"/>
-      <c r="F274" s="35"/>
-      <c r="G274" s="35"/>
-      <c r="H274" s="35"/>
-      <c r="I274" s="35"/>
-      <c r="J274" s="35"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
+      <c r="C274" s="27"/>
+      <c r="D274" s="26"/>
+      <c r="E274" s="26"/>
+      <c r="F274" s="26"/>
+      <c r="G274" s="26"/>
+      <c r="H274" s="26"/>
+      <c r="I274" s="26"/>
+      <c r="J274" s="26"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
     </row>
     <row r="275" spans="1:13" ht="14.25">
-      <c r="A275" s="17"/>
-      <c r="B275" s="17"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
-      <c r="J275" s="17"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="36"/>
+      <c r="G275" s="36"/>
+      <c r="H275" s="36"/>
+      <c r="I275" s="36"/>
+      <c r="J275" s="36"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
@@ -14273,11 +14115,11 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="4"/>
-      <c r="K325" s="26" t="s">
+      <c r="K325" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="L325" s="27"/>
-      <c r="M325" s="28"/>
+      <c r="L325" s="18"/>
+      <c r="M325" s="19"/>
     </row>
     <row r="326" spans="1:13" ht="14.25">
       <c r="A326" s="2" t="s">
@@ -14298,9 +14140,9 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="4"/>
-      <c r="K326" s="29"/>
-      <c r="L326" s="30"/>
-      <c r="M326" s="31"/>
+      <c r="K326" s="20"/>
+      <c r="L326" s="21"/>
+      <c r="M326" s="22"/>
     </row>
     <row r="327" spans="1:13" ht="14.25">
       <c r="A327" s="2" t="s">
@@ -14321,9 +14163,9 @@
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="29"/>
-      <c r="L327" s="30"/>
-      <c r="M327" s="31"/>
+      <c r="K327" s="20"/>
+      <c r="L327" s="21"/>
+      <c r="M327" s="22"/>
     </row>
     <row r="328" spans="1:13" ht="14.25">
       <c r="A328" s="2" t="s">
@@ -14344,9 +14186,9 @@
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="29"/>
-      <c r="L328" s="30"/>
-      <c r="M328" s="31"/>
+      <c r="K328" s="20"/>
+      <c r="L328" s="21"/>
+      <c r="M328" s="22"/>
     </row>
     <row r="329" spans="1:13" ht="14.25">
       <c r="A329" s="2" t="s">
@@ -14367,9 +14209,9 @@
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="29"/>
-      <c r="L329" s="30"/>
-      <c r="M329" s="31"/>
+      <c r="K329" s="20"/>
+      <c r="L329" s="21"/>
+      <c r="M329" s="22"/>
     </row>
     <row r="330" spans="1:13" ht="14.25">
       <c r="A330" s="2" t="s">
@@ -14390,9 +14232,9 @@
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="29"/>
-      <c r="L330" s="30"/>
-      <c r="M330" s="31"/>
+      <c r="K330" s="20"/>
+      <c r="L330" s="21"/>
+      <c r="M330" s="22"/>
     </row>
     <row r="331" spans="1:13" ht="14.25">
       <c r="A331" s="2" t="s">
@@ -14413,9 +14255,9 @@
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="29"/>
-      <c r="L331" s="30"/>
-      <c r="M331" s="31"/>
+      <c r="K331" s="20"/>
+      <c r="L331" s="21"/>
+      <c r="M331" s="22"/>
     </row>
     <row r="332" spans="1:13" ht="14.25">
       <c r="A332" s="2" t="s">
@@ -14436,9 +14278,9 @@
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="29"/>
-      <c r="L332" s="30"/>
-      <c r="M332" s="31"/>
+      <c r="K332" s="20"/>
+      <c r="L332" s="21"/>
+      <c r="M332" s="22"/>
     </row>
     <row r="333" spans="1:13" ht="14.25">
       <c r="A333" s="2" t="s">
@@ -14459,9 +14301,9 @@
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="29"/>
-      <c r="L333" s="30"/>
-      <c r="M333" s="31"/>
+      <c r="K333" s="20"/>
+      <c r="L333" s="21"/>
+      <c r="M333" s="22"/>
     </row>
     <row r="334" spans="1:13" ht="14.25">
       <c r="A334" s="2" t="s">
@@ -14482,9 +14324,9 @@
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="29"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="K334" s="20"/>
+      <c r="L334" s="21"/>
+      <c r="M334" s="22"/>
     </row>
     <row r="335" spans="1:13" ht="14.25">
       <c r="A335" s="2" t="s">
@@ -14505,9 +14347,9 @@
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="29"/>
-      <c r="L335" s="30"/>
-      <c r="M335" s="31"/>
+      <c r="K335" s="20"/>
+      <c r="L335" s="21"/>
+      <c r="M335" s="22"/>
     </row>
     <row r="336" spans="1:13" ht="14.25">
       <c r="A336" s="2" t="s">
@@ -14528,9 +14370,9 @@
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="29"/>
-      <c r="L336" s="30"/>
-      <c r="M336" s="31"/>
+      <c r="K336" s="20"/>
+      <c r="L336" s="21"/>
+      <c r="M336" s="22"/>
     </row>
     <row r="337" spans="1:13" ht="14.25">
       <c r="A337" s="2" t="s">
@@ -14551,9 +14393,9 @@
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="29"/>
-      <c r="L337" s="30"/>
-      <c r="M337" s="31"/>
+      <c r="K337" s="20"/>
+      <c r="L337" s="21"/>
+      <c r="M337" s="22"/>
     </row>
     <row r="338" spans="1:13" ht="14.25">
       <c r="A338" s="2" t="s">
@@ -14574,9 +14416,9 @@
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="29"/>
-      <c r="L338" s="30"/>
-      <c r="M338" s="31"/>
+      <c r="K338" s="20"/>
+      <c r="L338" s="21"/>
+      <c r="M338" s="22"/>
     </row>
     <row r="339" spans="1:13" ht="14.25">
       <c r="A339" s="2" t="s">
@@ -14599,12 +14441,16 @@
       <c r="J339" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K339" s="32"/>
-      <c r="L339" s="33"/>
-      <c r="M339" s="34"/>
+      <c r="K339" s="23"/>
+      <c r="L339" s="24"/>
+      <c r="M339" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="K325:M339"/>
     <mergeCell ref="K190:M203"/>
     <mergeCell ref="K53:M67"/>
@@ -14616,1940 +14462,10 @@
     <mergeCell ref="A273:J274"/>
     <mergeCell ref="A207:J207"/>
     <mergeCell ref="A275:J275"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A139:J139"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP(B2,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.3888888888888891</v>
-      </c>
-      <c r="E2">
-        <f>VLOOKUP(C2,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>2.6602639755758744</v>
-      </c>
-      <c r="F2">
-        <f>(D2-E2)*1.17</f>
-        <v>-1.4875088514237726</v>
-      </c>
-      <c r="G2">
-        <f>VLOOKUP(B2,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1285968381230982</v>
-      </c>
-      <c r="H2">
-        <f>VLOOKUP(C2,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.641025641025641</v>
-      </c>
-      <c r="I2">
-        <f>(H2-G2)*1.033732</f>
-        <v>0.5297140512820514</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(F2&gt;I2,B2,C2)</f>
-        <v>德国</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <f>VLOOKUP(B3,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>VLOOKUP(C3,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F49" si="0">(D3-E3)*1.17</f>
-        <v>-1.5090952006903138</v>
-      </c>
-      <c r="G3">
-        <f>VLOOKUP(B3,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>VLOOKUP(C3,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I49" si="1">(H3-G3)*1.033732</f>
-        <v>1.3252974358974361</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J49" si="2">IF(F3&gt;I3,B3,C3)</f>
-        <v>丹麦</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <f>VLOOKUP(B4,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="E4">
-        <f>VLOOKUP(C4,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.6583463743849605</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-0.94026525803040362</v>
-      </c>
-      <c r="G4">
-        <f>VLOOKUP(B4,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.3224562394637423</v>
-      </c>
-      <c r="H4">
-        <f>VLOOKUP(C4,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.8803418803418805</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>1.6104362393162399</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="2"/>
-        <v>西班牙</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <f>VLOOKUP(B5,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1396011396011396</v>
-      </c>
-      <c r="E5">
-        <f>VLOOKUP(C5,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.3224562394637423</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.95605953316075487</v>
-      </c>
-      <c r="G5">
-        <f>VLOOKUP(B5,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2311965506797435</v>
-      </c>
-      <c r="H5">
-        <f>VLOOKUP(C5,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1965811965811965</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>-3.5782999222999184E-2</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="2"/>
-        <v>墨西哥</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6">
-        <f>VLOOKUP(B6,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="E6">
-        <f>VLOOKUP(C6,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.72552653879342033</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.15113394961169829</v>
-      </c>
-      <c r="G6">
-        <f>VLOOKUP(B6,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.3224562394637423</v>
-      </c>
-      <c r="H6">
-        <f>VLOOKUP(C6,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.7094017094017095</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>1.4337299145299149</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="2"/>
-        <v>葡萄牙</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <f>VLOOKUP(B7,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E7">
-        <f>VLOOKUP(C7,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.3973103710095502</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-0.13485313408117366</v>
-      </c>
-      <c r="G7">
-        <f>VLOOKUP(B7,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="H7">
-        <f>VLOOKUP(C7,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1752136752136753</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-0.11847735042735008</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="2"/>
-        <v>法国</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8">
-        <f>VLOOKUP(B8,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="E8">
-        <f>VLOOKUP(C8,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-0.30909520069031382</v>
-      </c>
-      <c r="G8">
-        <f>VLOOKUP(B8,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="H8">
-        <f>VLOOKUP(C8,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>-0.11646837606837594</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="2"/>
-        <v>哥斯达黎加</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <f>VLOOKUP(B9,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="E9">
-        <f>VLOOKUP(C9,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>6.8178599482264485E-2</v>
-      </c>
-      <c r="G9">
-        <f>VLOOKUP(B9,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.75239789208206553</v>
-      </c>
-      <c r="H9">
-        <f>VLOOKUP(C9,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6591251885369533</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.93731302161890417</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="2"/>
-        <v>阿根廷</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10">
-        <f>VLOOKUP(B10,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="E10">
-        <f>VLOOKUP(C10,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="G10">
-        <f>VLOOKUP(B10,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.82917318719248023</v>
-      </c>
-      <c r="H10">
-        <f>VLOOKUP(C10,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>-0.8571428571428571</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="2"/>
-        <v>比利时</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11">
-        <f>VLOOKUP(B11,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.4957264957264957</v>
-      </c>
-      <c r="E11">
-        <f>VLOOKUP(C11,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="G11">
-        <f>VLOOKUP(B11,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.6449124789274846</v>
-      </c>
-      <c r="H11">
-        <f>VLOOKUP(C11,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>-0.66666666666666652</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="2"/>
-        <v>澳大利亚</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <f>VLOOKUP(B12,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.7094017094017095</v>
-      </c>
-      <c r="E12">
-        <f>VLOOKUP(C12,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.3224562394637423</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1.6227261998274216</v>
-      </c>
-      <c r="G12">
-        <f>VLOOKUP(B12,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.4510530775868407</v>
-      </c>
-      <c r="H12">
-        <f>VLOOKUP(C12,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>-0.61646837606837601</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="2"/>
-        <v>摩洛哥</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <f>VLOOKUP(B13,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>VLOOKUP(C13,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-1.5090952006903138</v>
-      </c>
-      <c r="G13">
-        <f>VLOOKUP(B13,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>VLOOKUP(C13,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6025641025641026</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1.6566217948717952</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="2"/>
-        <v>乌拉圭</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <f>VLOOKUP(B14,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.64102564102564108</v>
-      </c>
-      <c r="E14">
-        <f>VLOOKUP(C14,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.48368435919561353</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.18408929974113222</v>
-      </c>
-      <c r="G14">
-        <f>VLOOKUP(B14,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="H14">
-        <f>VLOOKUP(C14,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.10307521367521391</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="2"/>
-        <v>日本</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <f>VLOOKUP(B15,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>VLOOKUP(C15,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>2.1765796163802609</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-2.546598151164905</v>
-      </c>
-      <c r="G15">
-        <f>VLOOKUP(B15,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="H15">
-        <f>VLOOKUP(C15,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6350798959494612</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.69023441099962857</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="2"/>
-        <v>巴西</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16">
-        <f>VLOOKUP(B16,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.64102564102564108</v>
-      </c>
-      <c r="E16">
-        <f>VLOOKUP(C16,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-0.75909520069031389</v>
-      </c>
-      <c r="G16">
-        <f>VLOOKUP(B16,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="H16">
-        <f>VLOOKUP(C16,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0.10307521367521391</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="2"/>
-        <v>塞内加尔</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17">
-        <f>VLOOKUP(B17,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="E17">
-        <f>VLOOKUP(C17,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="G17">
-        <f>VLOOKUP(B17,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.75239789208206553</v>
-      </c>
-      <c r="H17">
-        <f>VLOOKUP(C17,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-0.77777777777777779</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="2"/>
-        <v>尼日利亚</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <f>VLOOKUP(B18,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>VLOOKUP(C18,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.19347374367824541</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>-0.22636428010354712</v>
-      </c>
-      <c r="G18">
-        <f>VLOOKUP(B18,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>VLOOKUP(C18,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0.8835316239316241</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="2"/>
-        <v>突尼斯</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <f>VLOOKUP(B19,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.7094017094017095</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(C19,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.4510530775868407</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.30226789922339659</v>
-      </c>
-      <c r="G19">
-        <f>VLOOKUP(B19,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.72552653879342033</v>
-      </c>
-      <c r="H19">
-        <f>VLOOKUP(C19,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.7094017094017095</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>1.0170632478632482</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="2"/>
-        <v>摩洛哥</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20">
-        <f>VLOOKUP(B20,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6025641025641026</v>
-      </c>
-      <c r="E20">
-        <f>VLOOKUP(C20,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.72552653879342033</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.0261339496116983</v>
-      </c>
-      <c r="G20">
-        <f>VLOOKUP(B20,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="H20">
-        <f>VLOOKUP(C20,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>-8.0358974358970131E-3</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="2"/>
-        <v>乌拉圭</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21">
-        <f>VLOOKUP(B21,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E21">
-        <f>VLOOKUP(C21,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G21">
-        <f>VLOOKUP(B21,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.72552653879342033</v>
-      </c>
-      <c r="H21">
-        <f>VLOOKUP(C21,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="2"/>
-        <v>俄罗斯</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22">
-        <f>VLOOKUP(B22,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1752136752136753</v>
-      </c>
-      <c r="E22">
-        <f>VLOOKUP(C22,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.6449124789274846</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0.620452399654843</v>
-      </c>
-      <c r="G22">
-        <f>VLOOKUP(B22,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.3973103710095502</v>
-      </c>
-      <c r="H22">
-        <f>VLOOKUP(C22,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.4957264957264957</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0.10173589743589752</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="2"/>
-        <v>法国</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23">
-        <f>VLOOKUP(B23,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>VLOOKUP(C23,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>VLOOKUP(B23,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.48368435919561353</v>
-      </c>
-      <c r="H23">
-        <f>VLOOKUP(C23,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="2"/>
-        <v>沙特</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <f>VLOOKUP(B24,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6025641025641026</v>
-      </c>
-      <c r="E24">
-        <f>VLOOKUP(C24,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.48368435919561353</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.3090892997411323</v>
-      </c>
-      <c r="G24">
-        <f>VLOOKUP(B24,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="H24">
-        <f>VLOOKUP(C24,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>-1.333333333333333</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="2"/>
-        <v>乌拉圭</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
-        <f>VLOOKUP(B25,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.3888888888888891</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(C25,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2311965506797435</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.18450003570470025</v>
-      </c>
-      <c r="G25">
-        <f>VLOOKUP(B25,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1285968381230982</v>
-      </c>
-      <c r="H25">
-        <f>VLOOKUP(C25,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1396011396011396</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1.1375498575498728E-2</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="2"/>
-        <v>韩国</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26">
-        <f>VLOOKUP(B26,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>VLOOKUP(C26,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>-1.3833372672994546</v>
-      </c>
-      <c r="G26">
-        <f>VLOOKUP(B26,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>VLOOKUP(C26,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2210012210012211</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>1.2621880341880345</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="2"/>
-        <v>克罗地亚</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <f>VLOOKUP(B27,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E27">
-        <f>VLOOKUP(C27,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.48368435919561353</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0.93408929974113231</v>
-      </c>
-      <c r="G27">
-        <f>VLOOKUP(B27,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.72552653879342033</v>
-      </c>
-      <c r="H27">
-        <f>VLOOKUP(C27,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="2"/>
-        <v>俄罗斯</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28">
-        <f>VLOOKUP(B28,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.641025641025641</v>
-      </c>
-      <c r="E28">
-        <f>VLOOKUP(C28,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.3224562394637423</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1.5427261998274213</v>
-      </c>
-      <c r="G28">
-        <f>VLOOKUP(B28,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>2.6602639755758744</v>
-      </c>
-      <c r="H28">
-        <f>VLOOKUP(C28,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1965811965811965</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>-1.5130557264957265</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="2"/>
-        <v>德国</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <f>VLOOKUP(B29,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="E29">
-        <f>VLOOKUP(C29,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.19347374367824541</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.5736357198964528</v>
-      </c>
-      <c r="G29">
-        <f>VLOOKUP(B29,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.82917318719248023</v>
-      </c>
-      <c r="H29">
-        <f>VLOOKUP(C29,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>2.6388766788767032E-2</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="2"/>
-        <v>比利时</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <f>VLOOKUP(B30,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.7094017094017095</v>
-      </c>
-      <c r="E30">
-        <f>VLOOKUP(C30,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.6583463743849605</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>5.9734741969596425E-2</v>
-      </c>
-      <c r="G30">
-        <f>VLOOKUP(B30,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.72552653879342033</v>
-      </c>
-      <c r="H30">
-        <f>VLOOKUP(C30,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.8803418803418805</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>1.1937695726495732</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="2"/>
-        <v>西班牙</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <f>VLOOKUP(B31,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1965811965811965</v>
-      </c>
-      <c r="E31">
-        <f>VLOOKUP(C31,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1285968381230982</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>7.954169939597508E-2</v>
-      </c>
-      <c r="G31">
-        <f>VLOOKUP(B31,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.3224562394637423</v>
-      </c>
-      <c r="H31">
-        <f>VLOOKUP(C31,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.3888888888888891</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>1.1024055555555559</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="2"/>
-        <v>韩国</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32">
-        <f>VLOOKUP(B32,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="E32">
-        <f>VLOOKUP(C32,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>-0.38333726729945455</v>
-      </c>
-      <c r="G32">
-        <f>VLOOKUP(B32,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.19347374367824541</v>
-      </c>
-      <c r="H32">
-        <f>VLOOKUP(C32,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0.75715925925925931</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="2"/>
-        <v>英格兰</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <f>VLOOKUP(B33,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2210012210012211</v>
-      </c>
-      <c r="E33">
-        <f>VLOOKUP(C33,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.75239789208206553</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0.54826589483541199</v>
-      </c>
-      <c r="G33">
-        <f>VLOOKUP(B33,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="H33">
-        <f>VLOOKUP(C33,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>-0.16198427350427327</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="2"/>
-        <v>克罗地亚</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34">
-        <f>VLOOKUP(B34,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E34">
-        <f>VLOOKUP(C34,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.6122811973187119</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>-0.38636900086289278</v>
-      </c>
-      <c r="G34">
-        <f>VLOOKUP(B34,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.48368435919561353</v>
-      </c>
-      <c r="H34">
-        <f>VLOOKUP(C34,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.3675213675213678</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>0.91365059829059869</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="2"/>
-        <v>哥伦比亚</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <f>VLOOKUP(B35,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.8803418803418805</v>
-      </c>
-      <c r="E35">
-        <f>VLOOKUP(C35,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.4510530775868407</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0.50226789922339665</v>
-      </c>
-      <c r="G35">
-        <f>VLOOKUP(B35,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.6583463743849605</v>
-      </c>
-      <c r="H35">
-        <f>VLOOKUP(C35,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.7094017094017095</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>5.2777533577534064E-2</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="2"/>
-        <v>西班牙</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36">
-        <f>VLOOKUP(B36,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E36">
-        <f>VLOOKUP(C36,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>-9.0952006903138385E-3</v>
-      </c>
-      <c r="G36">
-        <f>VLOOKUP(B36,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.48368435919561353</v>
-      </c>
-      <c r="H36">
-        <f>VLOOKUP(C36,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>0.8252974358974362</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="2"/>
-        <v>塞内加尔</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37">
-        <f>VLOOKUP(B37,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6591251885369533</v>
-      </c>
-      <c r="E37">
-        <f>VLOOKUP(C37,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>1.9411764705882353</v>
-      </c>
-      <c r="G37">
-        <f>VLOOKUP(B37,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="H37">
-        <f>VLOOKUP(C37,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="2"/>
-        <v>阿根廷</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38">
-        <f>VLOOKUP(B38,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E38">
-        <f>VLOOKUP(C38,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.6449124789274846</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0.74545239965484311</v>
-      </c>
-      <c r="G38">
-        <f>VLOOKUP(B38,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="H38">
-        <f>VLOOKUP(C38,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.4957264957264957</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>0.21284700854700889</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="2"/>
-        <v>丹麦</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39">
-        <f>VLOOKUP(B39,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.641025641025641</v>
-      </c>
-      <c r="E39">
-        <f>VLOOKUP(C39,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2311965506797435</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0.47950003570469996</v>
-      </c>
-      <c r="G39">
-        <f>VLOOKUP(B39,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>2.6602639755758744</v>
-      </c>
-      <c r="H39">
-        <f>VLOOKUP(C39,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1396011396011396</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>-1.5719578347578347</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="2"/>
-        <v>德国</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <f>VLOOKUP(B40,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2820512820512822</v>
-      </c>
-      <c r="E40">
-        <f>VLOOKUP(C40,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.6122811973187119</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>-0.38636900086289278</v>
-      </c>
-      <c r="G40">
-        <f>VLOOKUP(B40,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="H40">
-        <f>VLOOKUP(C40,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.3675213675213678</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>8.031726495726553E-2</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="2"/>
-        <v>哥伦比亚</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41">
-        <f>VLOOKUP(B41,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="E41">
-        <f>VLOOKUP(C41,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>-0.13182140051773558</v>
-      </c>
-      <c r="G41">
-        <f>VLOOKUP(B41,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="H41">
-        <f>VLOOKUP(C41,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>-1.333333333333333</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="2"/>
-        <v>哥斯达黎加</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42">
-        <f>VLOOKUP(B42,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6350798959494612</v>
-      </c>
-      <c r="E42">
-        <f>VLOOKUP(C42,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.2898249578549692</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0.40394827757055568</v>
-      </c>
-      <c r="G42">
-        <f>VLOOKUP(B42,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>2.1765796163802609</v>
-      </c>
-      <c r="H42">
-        <f>VLOOKUP(C42,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.85470085470085477</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>-1.366468376068376</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="2"/>
-        <v>巴西</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43">
-        <f>VLOOKUP(B43,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <f>VLOOKUP(C43,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>-1.1318214005177356</v>
-      </c>
-      <c r="G43">
-        <f>VLOOKUP(B43,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="H43">
-        <f>VLOOKUP(C43,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>6.0237948717948922E-2</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="2"/>
-        <v>瑞士</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>229</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44">
-        <f>VLOOKUP(B44,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.1752136752136753</v>
-      </c>
-      <c r="E44">
-        <f>VLOOKUP(C44,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1.375</v>
-      </c>
-      <c r="G44">
-        <f>VLOOKUP(B44,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.3973103710095502</v>
-      </c>
-      <c r="H44">
-        <f>VLOOKUP(C44,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>-1.4444444444444444</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="2"/>
-        <v>法国</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45">
-        <f>VLOOKUP(B45,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="E45">
-        <f>VLOOKUP(C45,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.82917318719248023</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0.11320070431813146</v>
-      </c>
-      <c r="G45">
-        <f>VLOOKUP(B45,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="H45">
-        <f>VLOOKUP(C45,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>0.36813470085470107</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="2"/>
-        <v>比利时</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46">
-        <f>VLOOKUP(B46,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6350798959494612</v>
-      </c>
-      <c r="E46">
-        <f>VLOOKUP(C46,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0.7812220777431339</v>
-      </c>
-      <c r="G46">
-        <f>VLOOKUP(B46,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>2.1765796163802609</v>
-      </c>
-      <c r="H46">
-        <f>VLOOKUP(C46,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>-1.189762051282051</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="2"/>
-        <v>巴西</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47">
-        <f>VLOOKUP(B47,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.6591251885369533</v>
-      </c>
-      <c r="E47">
-        <f>VLOOKUP(C47,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>0.55783920328878067</v>
-      </c>
-      <c r="G47">
-        <f>VLOOKUP(B47,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0.96736871839122707</v>
-      </c>
-      <c r="H47">
-        <f>VLOOKUP(C47,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.2210012210012211</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>0.26218803418803438</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="2"/>
-        <v>阿根廷</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48">
-        <f>VLOOKUP(B48,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="E48">
-        <f>VLOOKUP(C48,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="G48">
-        <f>VLOOKUP(B48,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="H48">
-        <f>VLOOKUP(C48,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>-1.2222222222222223</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="2"/>
-        <v>英格兰</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49">
-        <f>VLOOKUP(B49,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>1.3675213675213678</v>
-      </c>
-      <c r="E49">
-        <f>VLOOKUP(C49,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.1823395447003886</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>0.21666273270054562</v>
-      </c>
-      <c r="G49">
-        <f>VLOOKUP(B49,各国攻防评估!$A$1:$E$33,5,FALSE)</f>
-        <v>1.6122811973187119</v>
-      </c>
-      <c r="H49">
-        <f>VLOOKUP(C49,各国攻防评估!$A$1:$E$33,4,FALSE)</f>
-        <v>0.64102564102564108</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>-1.0040179487179488</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="2"/>
-        <v>哥伦比亚</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -34045,11 +31961,11 @@
         <v>2.75</v>
       </c>
       <c r="D2">
-        <f>B2/1.17</f>
+        <f t="shared" ref="D2:D33" si="0">B2/1.17</f>
         <v>1.641025641025641</v>
       </c>
       <c r="E2">
-        <f>C2/1.033732</f>
+        <f t="shared" ref="E2:E33" si="1">C2/1.033732</f>
         <v>2.6602639755758744</v>
       </c>
     </row>
@@ -34066,11 +31982,11 @@
         <v>2.25</v>
       </c>
       <c r="D3">
-        <f>B3/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.6350798959494612</v>
       </c>
       <c r="E3">
-        <f>C3/1.033732</f>
+        <f t="shared" si="1"/>
         <v>2.1765796163802609</v>
       </c>
     </row>
@@ -34087,11 +32003,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="D4">
-        <f>B4/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.8803418803418805</v>
       </c>
       <c r="E4">
-        <f>C4/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.6583463743849605</v>
       </c>
       <c r="N4" t="s">
@@ -34111,11 +32027,11 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D5">
-        <f>B5/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.3675213675213678</v>
       </c>
       <c r="E5">
-        <f>C5/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.6122811973187119</v>
       </c>
       <c r="N5" t="s">
@@ -34135,11 +32051,11 @@
         <v>1.5</v>
       </c>
       <c r="D6">
-        <f>B6/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.7094017094017095</v>
       </c>
       <c r="E6">
-        <f>C6/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.4510530775868407</v>
       </c>
       <c r="N6" t="s">
@@ -34159,11 +32075,11 @@
         <v>1.4444444444444444</v>
       </c>
       <c r="D7">
-        <f>B7/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.1752136752136753</v>
       </c>
       <c r="E7">
-        <f>C7/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.3973103710095502</v>
       </c>
       <c r="N7" t="s">
@@ -34183,11 +32099,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="D8">
-        <f>B8/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.6025641025641026</v>
       </c>
       <c r="E8">
-        <f>C8/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.2898249578549692</v>
       </c>
       <c r="N8" t="s">
@@ -34207,11 +32123,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="D9">
-        <f>B9/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.2820512820512822</v>
       </c>
       <c r="E9">
-        <f>C9/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.2898249578549692</v>
       </c>
       <c r="N9" t="s">
@@ -34231,11 +32147,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="D10">
-        <f>B10/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.2820512820512822</v>
       </c>
       <c r="E10">
-        <f>C10/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.2898249578549692</v>
       </c>
       <c r="N10" t="s">
@@ -34255,11 +32171,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="D11">
-        <f>B11/1.17</f>
+        <f t="shared" si="0"/>
         <v>0.85470085470085477</v>
       </c>
       <c r="E11">
-        <f>C11/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.2898249578549692</v>
       </c>
     </row>
@@ -34276,11 +32192,11 @@
         <v>1.2727272727272727</v>
       </c>
       <c r="D12">
-        <f>B12/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.1396011396011396</v>
       </c>
       <c r="E12">
-        <f>C12/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.2311965506797435</v>
       </c>
     </row>
@@ -34297,11 +32213,11 @@
         <v>1.2222222222222223</v>
       </c>
       <c r="D13">
-        <f>B13/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.2210012210012211</v>
       </c>
       <c r="E13">
-        <f>C13/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.1823395447003886</v>
       </c>
     </row>
@@ -34318,11 +32234,11 @@
         <v>1.2222222222222223</v>
       </c>
       <c r="D14">
-        <f>B14/1.17</f>
+        <f t="shared" si="0"/>
         <v>0.92592592592592593</v>
       </c>
       <c r="E14">
-        <f>C14/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.1823395447003886</v>
       </c>
     </row>
@@ -34339,11 +32255,11 @@
         <v>1.2222222222222223</v>
       </c>
       <c r="D15">
-        <f>B15/1.17</f>
+        <f t="shared" si="0"/>
         <v>0.64102564102564108</v>
       </c>
       <c r="E15">
-        <f>C15/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.1823395447003886</v>
       </c>
     </row>
@@ -34360,11 +32276,11 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="D16">
-        <f>B16/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.3888888888888891</v>
       </c>
       <c r="E16">
-        <f>C16/1.033732</f>
+        <f t="shared" si="1"/>
         <v>1.1285968381230982</v>
       </c>
     </row>
@@ -34381,11 +32297,11 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>B17/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.6591251885369533</v>
       </c>
       <c r="E17">
-        <f>C17/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.96736871839122707</v>
       </c>
     </row>
@@ -34402,11 +32318,11 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f>B18/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.0256410256410258</v>
       </c>
       <c r="E18">
-        <f>C18/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.96736871839122707</v>
       </c>
     </row>
@@ -34423,11 +32339,11 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <f>B19/1.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>C19/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.96736871839122707</v>
       </c>
     </row>
@@ -34444,11 +32360,11 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D20">
-        <f>B20/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="E20">
-        <f>C20/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.82917318719248023</v>
       </c>
     </row>
@@ -34465,11 +32381,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D21">
-        <f>B21/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.0256410256410258</v>
       </c>
       <c r="E21">
-        <f>C21/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.75239789208206553</v>
       </c>
     </row>
@@ -34486,11 +32402,11 @@
         <v>0.75</v>
       </c>
       <c r="D22">
-        <f>B22/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.7094017094017095</v>
       </c>
       <c r="E22">
-        <f>C22/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.72552653879342033</v>
       </c>
     </row>
@@ -34507,11 +32423,11 @@
         <v>0.75</v>
       </c>
       <c r="D23">
-        <f>B23/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.2820512820512822</v>
       </c>
       <c r="E23">
-        <f>C23/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.72552653879342033</v>
       </c>
     </row>
@@ -34528,11 +32444,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D24">
-        <f>B24/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.4957264957264957</v>
       </c>
       <c r="E24">
-        <f>C24/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.6449124789274846</v>
       </c>
     </row>
@@ -34549,11 +32465,11 @@
         <v>0.5</v>
       </c>
       <c r="D25">
-        <f>B25/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.2820512820512822</v>
       </c>
       <c r="E25">
-        <f>C25/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.48368435919561353</v>
       </c>
     </row>
@@ -34570,11 +32486,11 @@
         <v>0.5</v>
       </c>
       <c r="D26">
-        <f>B26/1.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>C26/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.48368435919561353</v>
       </c>
     </row>
@@ -34591,11 +32507,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D27">
-        <f>B27/1.17</f>
+        <f t="shared" si="0"/>
         <v>1.1965811965811965</v>
       </c>
       <c r="E27">
-        <f>C27/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.3224562394637423</v>
       </c>
     </row>
@@ -34612,11 +32528,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D28">
-        <f>B28/1.17</f>
+        <f t="shared" si="0"/>
         <v>0.85470085470085477</v>
       </c>
       <c r="E28">
-        <f>C28/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.3224562394637423</v>
       </c>
     </row>
@@ -34633,17 +32549,17 @@
         <v>0.2</v>
       </c>
       <c r="D29">
-        <f>B29/1.17</f>
+        <f t="shared" si="0"/>
         <v>0.85470085470085477</v>
       </c>
       <c r="E29">
-        <f>C29/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0.19347374367824541</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -34652,11 +32568,11 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f>B30/1.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>C30/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34671,11 +32587,11 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f>B31/1.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>C31/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34690,11 +32606,11 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f>B32/1.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>C32/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34709,11 +32625,11 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f>B33/1.17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>C33/1.033732</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34730,7 +32646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -34738,31 +32654,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -36287,7 +34203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -36302,13 +34218,13 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -36319,10 +34235,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -36333,10 +34249,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6">
